--- a/BoxOfficeReport.xlsx
+++ b/BoxOfficeReport.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$277,757,968.00</t>
+          <t>$279,800,257.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -485,7 +485,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$68,178.20</t>
+          <t>$68,679.49</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$181,449,090.00</t>
+          <t>$185,045,010.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -517,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$44,614.97</t>
+          <t>$45,499.14</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$174,480,032.00</t>
+          <t>$181,700,523.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$44,194.54</t>
+          <t>$46,023.44</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$104,137,915.00</t>
+          <t>$107,388,851.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$23,967.30</t>
+          <t>$24,715.50</t>
         </is>
       </c>
     </row>
